--- a/STRIDE_THREAT_MODEL_-_ICS-OT_v2.xlsx
+++ b/STRIDE_THREAT_MODEL_-_ICS-OT_v2.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D56ACB-F2D2-498B-97CA-3699C1AD3CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="ATT&amp;CK for ICS (v9)" state="visible" r:id="rId4"/>
+    <sheet name="ATT&amp;CK for ICS (v9)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -124,21 +128,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFffffff"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <color rgb="FFffffff"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -150,12 +160,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0025ff"/>
+        <fgColor rgb="FF0025FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe20000"/>
+        <fgColor rgb="FFE20000"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,7 +181,9 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -201,6 +213,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743074</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7648248" cy="1507977"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FA41F7-3F33-4667-8837-2F2A786E26CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20447635">
+          <a:off x="3743324" y="1657350"/>
+          <a:ext cx="7648248" cy="1507977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="9600" b="1" cap="none" spc="50">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Art Rebultan</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,9 +599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="30" customWidth="1"/>
   </cols>
@@ -677,6 +757,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>